--- a/artfynd/A 37113-2022.xlsx
+++ b/artfynd/A 37113-2022.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111399971</v>
+        <v>111399964</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>89558</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>713904.7870529388</v>
+        <v>713805.3746224912</v>
       </c>
       <c r="R3" t="n">
-        <v>7286390.269694135</v>
+        <v>7286359.694314429</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,11 +893,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>fjolårets fruktkropp, vit mycelmatta i marken</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -925,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111399964</v>
+        <v>111399971</v>
       </c>
       <c r="B4" t="n">
-        <v>89558</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,25 +932,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>713805.3746224912</v>
+        <v>713904.7870529388</v>
       </c>
       <c r="R4" t="n">
-        <v>7286359.694314429</v>
+        <v>7286390.269694135</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,6 +1013,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>fjolårets fruktkropp, vit mycelmatta i marken</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 37113-2022.xlsx
+++ b/artfynd/A 37113-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111399984</v>
+        <v>111399964</v>
       </c>
       <c r="B2" t="n">
         <v>89558</v>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>713925.3805777475</v>
+        <v>713805.3746224912</v>
       </c>
       <c r="R2" t="n">
-        <v>7286420.397548387</v>
+        <v>7286359.694314429</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111399964</v>
+        <v>111399984</v>
       </c>
       <c r="B3" t="n">
         <v>89558</v>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>713805.3746224912</v>
+        <v>713925.3805777475</v>
       </c>
       <c r="R3" t="n">
-        <v>7286359.694314429</v>
+        <v>7286420.397548387</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 37113-2022.xlsx
+++ b/artfynd/A 37113-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111399964</v>
+        <v>111399971</v>
       </c>
       <c r="B2" t="n">
-        <v>89558</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>713805.3746224912</v>
+        <v>713904.7870529388</v>
       </c>
       <c r="R2" t="n">
-        <v>7286359.694314429</v>
+        <v>7286390.269694135</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -773,6 +773,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>fjolårets fruktkropp, vit mycelmatta i marken</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -800,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111399984</v>
+        <v>111399964</v>
       </c>
       <c r="B3" t="n">
         <v>89558</v>
@@ -847,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>713925.3805777475</v>
+        <v>713805.3746224912</v>
       </c>
       <c r="R3" t="n">
-        <v>7286420.397548387</v>
+        <v>7286359.694314429</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,10 +925,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111399971</v>
+        <v>111399984</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>89558</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,25 +937,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>713904.7870529388</v>
+        <v>713925.3805777475</v>
       </c>
       <c r="R4" t="n">
-        <v>7286390.269694135</v>
+        <v>7286420.397548387</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,11 +1018,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>fjolårets fruktkropp, vit mycelmatta i marken</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 37113-2022.xlsx
+++ b/artfynd/A 37113-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111399971</v>
+        <v>111399984</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>89558</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>713904.7870529388</v>
+        <v>713925.3805777475</v>
       </c>
       <c r="R2" t="n">
-        <v>7286390.269694135</v>
+        <v>7286420.397548387</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -773,11 +773,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>fjolårets fruktkropp, vit mycelmatta i marken</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -925,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111399984</v>
+        <v>111399971</v>
       </c>
       <c r="B4" t="n">
-        <v>89558</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,25 +932,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>713925.3805777475</v>
+        <v>713904.7870529388</v>
       </c>
       <c r="R4" t="n">
-        <v>7286420.397548387</v>
+        <v>7286390.269694135</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,6 +1013,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>fjolårets fruktkropp, vit mycelmatta i marken</t>
         </is>
       </c>
       <c r="AD4" t="b">
